--- a/cov_rate(2020  using 2019).xlsx
+++ b/cov_rate(2020  using 2019).xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Average Conv Rate" sheetId="2" r:id="rId2"/>
     <sheet name="Time Speed" sheetId="3" r:id="rId3"/>
+    <sheet name="Ranking Index" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="41">
   <si>
     <t>Row</t>
   </si>
@@ -131,11 +132,20 @@
   <si>
     <t>GAAPSO</t>
   </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>absolute mean value</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,8 +175,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,9 +196,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-VE"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -232,7 +243,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-VE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -418,7 +429,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-75D0-4A95-B3D1-33938EA38AA7}"/>
             </c:ext>
@@ -600,7 +611,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-75D0-4A95-B3D1-33938EA38AA7}"/>
             </c:ext>
@@ -782,7 +793,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-75D0-4A95-B3D1-33938EA38AA7}"/>
             </c:ext>
@@ -964,7 +975,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-75D0-4A95-B3D1-33938EA38AA7}"/>
             </c:ext>
@@ -1146,7 +1157,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-75D0-4A95-B3D1-33938EA38AA7}"/>
             </c:ext>
@@ -1304,6 +1315,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C6A-4CE6-85A9-2DCF83C1EE4D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1359,7 +1375,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-VE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="62664064"/>
@@ -1418,7 +1434,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-VE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="62662144"/>
@@ -1461,7 +1477,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-VE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1491,7 +1507,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-VE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1503,9 +1519,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-VE"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1543,7 +1559,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-VE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1631,7 +1647,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6CC0-4FBD-AE35-6E68E8B68FA7}"/>
             </c:ext>
@@ -1690,7 +1706,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-VE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59639680"/>
@@ -1749,7 +1765,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-VE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59638144"/>
@@ -1790,7 +1806,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-VE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1801,7 +1817,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1841,550 +1857,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3002,7 +2475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3037,7 +2510,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3933,10 +3406,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4422,6 +3895,64 @@
       </c>
       <c r="G21">
         <v>-0.34157147328517701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE(B2:B21)</f>
+        <v>-0.64286826675075992</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:G22" si="0">AVERAGE(C2:C21)</f>
+        <v>-50.434540127256859</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-0.36502509964507984</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.16679801068660066</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>-0.78509115358258175</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>-0.296996936453436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <f>ABS(B22)</f>
+        <v>0.64286826675075992</v>
+      </c>
+      <c r="C23">
+        <f>ABS(C22)</f>
+        <v>50.434540127256859</v>
+      </c>
+      <c r="D23">
+        <f>ABS(D22)</f>
+        <v>0.36502509964507984</v>
+      </c>
+      <c r="E23">
+        <f>ABS(E22)</f>
+        <v>0.16679801068660066</v>
+      </c>
+      <c r="F23">
+        <f>ABS(F22)</f>
+        <v>0.78509115358258175</v>
+      </c>
+      <c r="G23">
+        <f>ABS(G22)</f>
+        <v>0.296996936453436</v>
       </c>
     </row>
   </sheetData>
@@ -5011,4 +4542,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>163.307771086922</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>276.10331519264201</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>303.81325006307702</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>549.18806825753495</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>171.305281262531</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>119.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>